--- a/data/input/Deudas/Anticipos - BRUERA BELKYS.xlsx
+++ b/data/input/Deudas/Anticipos - BRUERA BELKYS.xlsx
@@ -66,10 +66,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -487,157 +487,145 @@
     <row r="3"/>
     <row r="4"/>
     <row r="5"/>
-    <row r="6">
-      <c r="A6" s="2" t="n"/>
-      <c r="B6" s="2" t="n"/>
-      <c r="C6" s="2" t="n"/>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="2" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n"/>
-      <c r="B7" s="2" t="n"/>
-      <c r="C7" s="2" t="n"/>
-      <c r="D7" s="2" t="n"/>
-      <c r="E7" s="2" t="n"/>
-    </row>
+    <row r="6"/>
+    <row r="7"/>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="2" t="inlineStr">
         <is>
           <t>Impuesto</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>Ant. / Cuota</t>
         </is>
       </c>
-      <c r="C8" s="3" t="inlineStr">
+      <c r="C8" s="2" t="inlineStr">
         <is>
           <t>Período Fiscal</t>
         </is>
       </c>
-      <c r="D8" s="3" t="inlineStr">
+      <c r="D8" s="2" t="inlineStr">
         <is>
           <t>Fecha de Vencimiento</t>
         </is>
       </c>
-      <c r="E8" s="3" t="inlineStr">
+      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>Saldo</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>11 - GANANCIAS PERSONAS FISICAS</t>
         </is>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="3" t="n">
         <v>2024</v>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="D9" s="3" t="inlineStr">
         <is>
           <t>15/10/2024</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="E9" s="3" t="inlineStr">
         <is>
           <t>161.617,23</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>11 - GANANCIAS PERSONAS FISICAS</t>
         </is>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="3" t="n">
         <v>2024</v>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="D10" s="3" t="inlineStr">
         <is>
           <t>14/11/2024</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="E10" s="3" t="inlineStr">
         <is>
           <t>161.617,23</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="3" t="inlineStr">
         <is>
           <t>11 - GANANCIAS PERSONAS FISICAS</t>
         </is>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="3" t="n">
         <v>2024</v>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="D11" s="3" t="inlineStr">
         <is>
           <t>16/12/2024</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="E11" s="3" t="inlineStr">
         <is>
           <t>161.617,23</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="inlineStr">
+      <c r="A12" s="3" t="inlineStr">
         <is>
           <t>11 - GANANCIAS PERSONAS FISICAS</t>
         </is>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="3" t="n">
         <v>2024</v>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="D12" s="3" t="inlineStr">
         <is>
           <t>14/02/2025</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="E12" s="3" t="inlineStr">
         <is>
           <t>161.617,23</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>11 - GANANCIAS PERSONAS FISICAS</t>
         </is>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="B13" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="C13" s="2" t="n">
+      <c r="C13" s="3" t="n">
         <v>2024</v>
       </c>
-      <c r="D13" s="2" t="inlineStr">
+      <c r="D13" s="3" t="inlineStr">
         <is>
           <t>15/04/2025</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="E13" s="3" t="inlineStr">
         <is>
           <t>161.617,23</t>
         </is>
